--- a/Data/Processed/Sapwood/Diameters.xlsx
+++ b/Data/Processed/Sapwood/Diameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Sapwood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Sapwood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0AB07D-2183-4401-A04D-8B091C2337E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F1CD68-CA0F-4047-AAEC-65A504F06A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E547E34-4F0C-4811-80ED-66DC33708262}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3940,7 +3940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+      <selection pane="topRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,7 +4055,7 @@
         <v>14.6</v>
       </c>
       <c r="P2" s="1">
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
